--- a/Frontend/assets/answersheet_test.xlsx
+++ b/Frontend/assets/answersheet_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajeong/Desktop/moment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajeong/Documents/GitHub/Point-Checker/Frontend/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC92427A-0ADA-404F-B1BB-E2CB3929B104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEC7391-BA88-B94F-BB93-175FF3D71361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1320" windowWidth="27900" windowHeight="16940" xr2:uid="{F7DB765B-EE49-5946-809E-56CB1A5582A8}"/>
+    <workbookView xWindow="1360" yWindow="1320" windowWidth="10000" windowHeight="16940" xr2:uid="{F7DB765B-EE49-5946-809E-56CB1A5582A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>문항번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3, 5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04081666-0A4B-AB40-AB63-D7157C91135D}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -451,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -459,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -475,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -483,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -506,8 +514,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>3</v>
+      <c r="B9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -531,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -539,14 +547,14 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -555,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -563,7 +571,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -611,6 +619,78 @@
         <v>21</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>5</v>
       </c>
     </row>
